--- a/stocks/Stocks_001.xlsx
+++ b/stocks/Stocks_001.xlsx
@@ -1,132 +1,195 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\git\daydayup\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9495" activeTab="1"/>
+    <workbookView windowWidth="24300" windowHeight="14790" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="CashFlowGuoJin" sheetId="1" r:id="rId1"/>
-    <sheet name="CachFlowPingAn" sheetId="2" r:id="rId2"/>
+    <sheet name="00101现金流1" sheetId="1" r:id="rId1"/>
+    <sheet name="00102现金流2" sheetId="2" r:id="rId2"/>
+    <sheet name="00103财务指标" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CachFlowPingAn!$A$1:$J$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CashFlowGuoJin!$A$1:$J$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'00101现金流1'!$A$1:$J$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'00102现金流2'!$A$1:$J$40</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Acount2</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>FeiYon</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>GUOJIN</t>
+  </si>
+  <si>
+    <t>10/08</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>RONGZI</t>
+  </si>
+  <si>
+    <t>WU</t>
+  </si>
+  <si>
+    <t>10/09</t>
+  </si>
+  <si>
+    <t>CHU</t>
+  </si>
+  <si>
+    <t>TOUZI</t>
+  </si>
+  <si>
+    <t>A600030</t>
+  </si>
+  <si>
+    <t>10/28</t>
+  </si>
   <si>
     <t>A000651</t>
   </si>
   <si>
-    <t>A600030</t>
+    <t>11/11</t>
   </si>
   <si>
     <t>A600535</t>
   </si>
   <si>
+    <t>11/20</t>
+  </si>
+  <si>
     <t>A600036</t>
   </si>
   <si>
+    <t>12/07</t>
+  </si>
+  <si>
     <t>A601318</t>
   </si>
   <si>
+    <t>12/27</t>
+  </si>
+  <si>
+    <t>LIXI</t>
+  </si>
+  <si>
+    <t>01/04</t>
+  </si>
+  <si>
+    <t>01/06</t>
+  </si>
+  <si>
     <t>A000895</t>
   </si>
   <si>
+    <t>01/18</t>
+  </si>
+  <si>
     <t>A601857</t>
   </si>
   <si>
+    <t>01/28</t>
+  </si>
+  <si>
+    <t>01/29</t>
+  </si>
+  <si>
     <t>A002594</t>
   </si>
   <si>
+    <t>02/25</t>
+  </si>
+  <si>
+    <t>03/17</t>
+  </si>
+  <si>
     <t>A600315</t>
   </si>
   <si>
+    <t>03/21</t>
+  </si>
+  <si>
+    <t>04/12</t>
+  </si>
+  <si>
     <t>A000869</t>
   </si>
   <si>
-    <t>10/09</t>
-  </si>
-  <si>
-    <t>10/28</t>
-  </si>
-  <si>
-    <t>11/11</t>
-  </si>
-  <si>
-    <t>11/20</t>
-  </si>
-  <si>
-    <t>12/07</t>
-  </si>
-  <si>
-    <t>01/06</t>
-  </si>
-  <si>
-    <t>01/18</t>
-  </si>
-  <si>
-    <t>01/29</t>
-  </si>
-  <si>
-    <t>02/25</t>
-  </si>
-  <si>
-    <t>03/17</t>
-  </si>
-  <si>
-    <t>04/12</t>
-  </si>
-  <si>
     <t>04/26</t>
   </si>
   <si>
     <t>04/27</t>
   </si>
   <si>
+    <t>FENHONG</t>
+  </si>
+  <si>
     <t>05/24</t>
   </si>
   <si>
     <t>06/07</t>
   </si>
   <si>
+    <t>06/21</t>
+  </si>
+  <si>
     <t>06/24</t>
   </si>
   <si>
+    <t>CHUSHOU</t>
+  </si>
+  <si>
+    <t>CHEZI</t>
+  </si>
+  <si>
     <t>06/27</t>
   </si>
   <si>
+    <t>SUODESHUI</t>
+  </si>
+  <si>
+    <t>06/28</t>
+  </si>
+  <si>
     <t>07/04</t>
   </si>
   <si>
-    <t>CHUSHOU</t>
-  </si>
-  <si>
-    <t>TOUZI</t>
-  </si>
-  <si>
-    <t>FENHONG</t>
-  </si>
-  <si>
-    <t>SUODESHUI</t>
-  </si>
-  <si>
     <t>07/06</t>
   </si>
   <si>
@@ -142,6 +205,9 @@
     <t>09/20</t>
   </si>
   <si>
+    <t>09/28</t>
+  </si>
+  <si>
     <t>09/23</t>
   </si>
   <si>
@@ -151,187 +217,461 @@
     <t>12/12</t>
   </si>
   <si>
-    <t>10/08</t>
-  </si>
-  <si>
-    <t>RONGZI</t>
-  </si>
-  <si>
-    <t>WU</t>
-  </si>
-  <si>
-    <t>12/27</t>
-  </si>
-  <si>
-    <t>LIXI</t>
-  </si>
-  <si>
-    <t>01/04</t>
-  </si>
-  <si>
-    <t>01/28</t>
-  </si>
-  <si>
-    <t>03/21</t>
-  </si>
-  <si>
-    <t>06/21</t>
-  </si>
-  <si>
-    <t>CHEZI</t>
-  </si>
-  <si>
-    <t>06/28</t>
-  </si>
-  <si>
-    <t>09/28</t>
+    <t>12/21</t>
   </si>
   <si>
     <t>03/22</t>
   </si>
   <si>
-    <t>12/21</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Direct</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Acount2</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Sum</t>
+    <t>04/21</t>
+  </si>
+  <si>
+    <t>A600664</t>
+  </si>
+  <si>
+    <t>Feiyong</t>
+  </si>
+  <si>
+    <t>PINGAN</t>
+  </si>
+  <si>
+    <t>08/02</t>
+  </si>
+  <si>
+    <t>A601166</t>
+  </si>
+  <si>
+    <t>08/11</t>
+  </si>
+  <si>
+    <t>A600886</t>
+  </si>
+  <si>
+    <t>08/12</t>
   </si>
   <si>
     <t>09/21</t>
   </si>
   <si>
-    <t>08/12</t>
+    <t>12/01</t>
+  </si>
+  <si>
+    <t>A601877</t>
   </si>
   <si>
     <t>02/15</t>
   </si>
   <si>
+    <t>02/16</t>
+  </si>
+  <si>
+    <t>02/24</t>
+  </si>
+  <si>
+    <t>A002138</t>
+  </si>
+  <si>
+    <t>02/28</t>
+  </si>
+  <si>
+    <t>A00001</t>
+  </si>
+  <si>
+    <t>03/01</t>
+  </si>
+  <si>
+    <t>A002450</t>
+  </si>
+  <si>
     <t>03/06</t>
   </si>
   <si>
-    <t>08/02</t>
-  </si>
-  <si>
-    <t>A601166</t>
-  </si>
-  <si>
-    <t>Feiyong</t>
-  </si>
-  <si>
-    <t>08/11</t>
-  </si>
-  <si>
-    <t>A600886</t>
-  </si>
-  <si>
-    <t>12/01</t>
-  </si>
-  <si>
-    <t>A601877</t>
-  </si>
-  <si>
-    <t>03/01</t>
-  </si>
-  <si>
-    <t>A002450</t>
-  </si>
-  <si>
-    <t>02/28</t>
-  </si>
-  <si>
-    <t>A00001</t>
-  </si>
-  <si>
-    <t>A002138</t>
-  </si>
-  <si>
-    <t>02/24</t>
-  </si>
-  <si>
-    <t>02/16</t>
-  </si>
-  <si>
     <t>03/07</t>
   </si>
   <si>
+    <t>A601633</t>
+  </si>
+  <si>
     <t>03/15</t>
   </si>
   <si>
+    <t>现金流2</t>
+  </si>
+  <si>
     <t>04/05</t>
   </si>
   <si>
-    <t>A601633</t>
-  </si>
-  <si>
-    <t>04/21</t>
-  </si>
-  <si>
-    <t>A600664</t>
-  </si>
-  <si>
-    <t>FeiYon</t>
-  </si>
-  <si>
     <t>04/11</t>
   </si>
   <si>
-    <t>GUOJIN</t>
-  </si>
-  <si>
-    <t>RU</t>
-  </si>
-  <si>
-    <t>CHU</t>
-  </si>
-  <si>
-    <t>PINGAN</t>
+    <t>自由现金流=经营现金流净额-固定资产增加</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -339,27 +679,308 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -406,7 +1027,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,7 +1062,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,78 +1236,73 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>2015</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>1600</v>
@@ -699,24 +1315,24 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2015</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>14.58</v>
@@ -729,24 +1345,24 @@
         <v>-1458</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2015</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>2000</v>
@@ -759,54 +1375,54 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>2015</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>17.420000000000002</v>
+        <v>17.42</v>
       </c>
       <c r="H5">
         <v>-100</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>-1742.0000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-1742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>2015</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>8000</v>
@@ -819,24 +1435,24 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>2015</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G7">
         <v>38.31</v>
@@ -849,54 +1465,54 @@
         <v>-3831</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>2015</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G8">
-        <v>18.170000000000002</v>
+        <v>18.17</v>
       </c>
       <c r="H8">
         <v>-200</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>-3634.0000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-3634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>2015</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
       </c>
       <c r="G9">
         <v>3000</v>
@@ -909,24 +1525,24 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>2015</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G10">
         <v>34.71</v>
@@ -939,21 +1555,21 @@
         <v>-3471</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>2015</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>0.7</v>
@@ -966,24 +1582,24 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2016</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G12">
         <v>4000</v>
@@ -996,24 +1612,24 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>2016</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>19.71</v>
@@ -1026,24 +1642,24 @@
         <v>-3942</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>2016</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G14">
         <v>300</v>
@@ -1056,24 +1672,24 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2016</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="s">
-        <v>91</v>
-      </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>7.3</v>
@@ -1086,24 +1702,24 @@
         <v>-730</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>2016</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G16">
         <v>5000</v>
@@ -1116,24 +1732,24 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>2016</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>46.3</v>
@@ -1146,24 +1762,24 @@
         <v>-4630</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>2016</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G18">
         <v>3000</v>
@@ -1176,24 +1792,24 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G19">
         <v>14.6</v>
@@ -1206,24 +1822,24 @@
         <v>-2920</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>2016</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G20">
         <v>5000</v>
@@ -1236,24 +1852,24 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>2016</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>29.5</v>
@@ -1266,51 +1882,51 @@
         <v>-2950</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>2016</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G22">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>2016</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G23">
         <v>3000</v>
@@ -1323,54 +1939,54 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>2016</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="G24">
-        <v>37.340000000000003</v>
+        <v>37.34</v>
       </c>
       <c r="H24">
         <v>-100</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>-3734.0000000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-3734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>2016</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G25">
         <v>3000</v>
@@ -1383,24 +1999,24 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>2016</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G26">
         <v>34.89</v>
@@ -1413,24 +2029,24 @@
         <v>-3489</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>2016</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G27">
         <v>250</v>
@@ -1443,24 +2059,24 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>2016</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G28">
         <v>84</v>
@@ -1473,39 +2089,39 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>2016</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="G29">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="J29">
         <f t="shared" si="2"/>
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>2016</v>
@@ -1514,10 +2130,10 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G30">
         <v>1.66</v>
@@ -1530,24 +2146,24 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B31">
         <v>2016</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G31">
         <v>34.54</v>
@@ -1560,24 +2176,24 @@
         <v>6908</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B32">
         <v>2016</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G32">
         <v>1647</v>
@@ -1590,24 +2206,24 @@
         <v>-1647</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B33">
         <v>2016</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G33">
         <v>4.2</v>
@@ -1620,24 +2236,24 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B34">
         <v>2016</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G34">
         <v>4.2</v>
@@ -1650,24 +2266,24 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>2016</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G35">
         <v>6800</v>
@@ -1680,24 +2296,24 @@
         <v>-6800</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>2016</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G36">
         <v>35</v>
@@ -1710,24 +2326,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>2016</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>99</v>
@@ -1740,24 +2356,24 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>2016</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>50</v>
@@ -1770,24 +2386,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>2016</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G39">
         <v>150</v>
@@ -1800,24 +2416,24 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>2016</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G40">
         <v>276</v>
@@ -1830,24 +2446,24 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B41">
         <v>2016</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G41">
         <v>50</v>
@@ -1860,24 +2476,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B42">
         <v>2016</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G42">
         <v>20</v>
@@ -1890,24 +2506,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B43">
         <v>2016</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>2.13</v>
@@ -1920,21 +2536,21 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B44">
         <v>2016</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G44">
         <v>0.85</v>
@@ -1947,24 +2563,24 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B45">
         <v>2016</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>180</v>
@@ -1977,21 +2593,21 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B46">
         <v>2016</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G46">
         <v>15000</v>
@@ -2004,24 +2620,24 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B47">
         <v>2016</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="G47">
         <v>28.48</v>
@@ -2034,51 +2650,51 @@
         <v>-5696</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B48">
         <v>2016</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="G48">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="J48">
         <f t="shared" si="3"/>
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B49">
         <v>2016</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G49">
         <v>2.92</v>
@@ -2091,21 +2707,21 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B50">
         <v>2017</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G50">
         <v>9</v>
@@ -2118,24 +2734,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B51">
         <v>2017</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G51">
         <v>5000</v>
@@ -2148,24 +2764,24 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B52">
         <v>2017</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G52">
         <v>6.22</v>
@@ -2181,31 +2797,31 @@
         <v>-3110</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:10">
       <c r="J53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:10">
       <c r="J54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:10">
       <c r="J55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:10">
       <c r="J56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:10">
       <c r="J57">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2213,74 +2829,76 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J57"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>2016</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>7000</v>
@@ -2296,24 +2914,24 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>2016</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>3010</v>
@@ -2329,24 +2947,24 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>2016</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G4">
         <v>15.57</v>
@@ -2362,24 +2980,24 @@
         <v>-4671</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>2016</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G5">
         <v>7.06</v>
@@ -2388,31 +3006,31 @@
         <v>-700</v>
       </c>
       <c r="I5">
-        <v>-5.0999999999999996</v>
+        <v>-5.1</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
         <v>-4942</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <v>2016</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>10000</v>
@@ -2428,24 +3046,24 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>2016</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>8.2100000000000009</v>
+        <v>8.21</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -2455,27 +3073,27 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>8.2100000000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>2016</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G8">
         <v>21.96</v>
@@ -2491,24 +3109,24 @@
         <v>-2196</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <v>2016</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G9">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -2518,27 +3136,27 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>2017</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>10000</v>
@@ -2554,9 +3172,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -2565,16 +3183,16 @@
         <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G11">
-        <v>19.670000000000002</v>
+        <v>19.67</v>
       </c>
       <c r="H11">
         <v>-100</v>
@@ -2584,27 +3202,27 @@
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>-1967.0000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-1967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>2017</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G12">
         <v>18.21</v>
@@ -2620,24 +3238,24 @@
         <v>-1821</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B13">
         <v>2017</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G13">
         <v>6.97</v>
@@ -2650,24 +3268,24 @@
         <v>-5576</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B14">
         <v>2017</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G14">
         <v>9.48</v>
@@ -2683,24 +3301,24 @@
         <v>-3792</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B15">
         <v>2017</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G15">
         <v>18.47</v>
@@ -2716,24 +3334,24 @@
         <v>-3694</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B16">
         <v>2017</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G16">
         <v>4800</v>
@@ -2749,27 +3367,27 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B17">
         <v>2017</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G17">
-        <v>12.734999999999999</v>
+        <v>12.735</v>
       </c>
       <c r="H17">
         <v>-200</v>
@@ -2782,24 +3400,24 @@
         <v>-2547</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B18">
         <v>2017</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G18">
         <v>16.53</v>
@@ -2814,22 +3432,25 @@
         <f t="shared" si="0"/>
         <v>-3306</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <v>2017</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G19">
         <v>6.13</v>
@@ -2845,24 +3466,24 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>2017</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G20">
         <v>7000</v>
@@ -2878,27 +3499,27 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G21">
-        <v>9.2100000000000009</v>
+        <v>9.21</v>
       </c>
       <c r="H21">
         <v>-700</v>
@@ -2908,27 +3529,27 @@
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>-6447.0000000000009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-6447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>2017</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G22">
         <v>10000</v>
@@ -2944,24 +3565,24 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B23">
         <v>2017</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G23">
         <v>15.51</v>
@@ -2977,9 +3598,9 @@
         <v>-9306</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2989,9 +3610,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3001,9 +3622,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3013,9 +3634,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3025,9 +3646,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3037,9 +3658,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3049,9 +3670,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3061,9 +3682,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3073,9 +3694,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3085,9 +3706,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3097,9 +3718,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3109,9 +3730,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3121,9 +3742,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3133,9 +3754,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3145,9 +3766,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3157,9 +3778,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3169,9 +3790,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3183,6 +3804,35 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J40"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="45.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/stocks/Stocks_001.xlsx
+++ b/stocks/Stocks_001.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\git\daydayup\stocks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24300" windowHeight="14790" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24300" windowHeight="14790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="00101现金流1" sheetId="1" r:id="rId1"/>
     <sheet name="00102现金流2" sheetId="2" r:id="rId2"/>
-    <sheet name="00103财务指标" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'00101现金流1'!$A$1:$J$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'00102现金流2'!$A$1:$J$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'00102现金流2'!$A$1:$J$43</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="100">
   <si>
     <t>Account</t>
   </si>
@@ -304,20 +309,29 @@
     <t>04/11</t>
   </si>
   <si>
-    <t>自由现金流=经营现金流净额-固定资产增加</t>
+    <t>05/10</t>
+  </si>
+  <si>
+    <t>06/13</t>
+  </si>
+  <si>
+    <t>06/22</t>
+  </si>
+  <si>
+    <t>05/19</t>
+  </si>
+  <si>
+    <t>06/02</t>
+  </si>
+  <si>
+    <t>06/20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,353 +339,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -679,308 +356,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1236,21 +632,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.14285714285714" style="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1315,7 +712,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1375,7 +772,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1395,14 +792,14 @@
         <v>20</v>
       </c>
       <c r="G5">
-        <v>17.42</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H5">
         <v>-100</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>-1742</v>
+        <v>-1742.0000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1435,7 +832,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1465,7 +862,7 @@
         <v>-3831</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1485,14 +882,14 @@
         <v>24</v>
       </c>
       <c r="G8">
-        <v>18.17</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="H8">
         <v>-200</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>-3634</v>
+        <v>-3634.0000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1525,7 +922,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1555,7 +952,7 @@
         <v>-3471</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1612,7 +1009,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1672,7 +1069,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" hidden="1">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1732,7 +1129,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1792,7 +1189,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1852,7 +1249,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1882,7 +1279,7 @@
         <v>-2950</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1899,14 +1296,14 @@
         <v>28</v>
       </c>
       <c r="G22">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1939,7 +1336,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1959,14 +1356,14 @@
         <v>42</v>
       </c>
       <c r="G24">
-        <v>37.34</v>
+        <v>37.340000000000003</v>
       </c>
       <c r="H24">
         <v>-100</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>-3734</v>
+        <v>-3734.0000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1999,7 +1396,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2029,7 +1426,7 @@
         <v>-3489</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2059,7 +1456,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2089,7 +1486,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2109,17 +1506,17 @@
         <v>33</v>
       </c>
       <c r="G29">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="J29">
         <f t="shared" si="2"/>
-        <v>2.49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2146,7 +1543,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2206,7 +1603,7 @@
         <v>-1647</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2236,7 +1633,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2296,7 +1693,7 @@
         <v>-6800</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2326,7 +1723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2356,7 +1753,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2386,7 +1783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" hidden="1">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2416,7 +1813,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2446,7 +1843,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2476,7 +1873,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" hidden="1">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2506,7 +1903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2536,7 +1933,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2563,7 +1960,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2620,7 +2017,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2650,7 +2047,7 @@
         <v>-5696</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2670,17 +2067,17 @@
         <v>36</v>
       </c>
       <c r="G48">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="J48">
         <f t="shared" si="3"/>
-        <v>36.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2707,7 +2104,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2764,7 +2161,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2797,56 +2194,178 @@
         <v>-3110</v>
       </c>
     </row>
-    <row r="53" spans="10:10">
+    <row r="53" spans="1:10" hidden="1">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>2017</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53">
+        <v>240</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
       <c r="J53">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="10:10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>2017</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54">
+        <v>296</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
       <c r="J54">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="10:10">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" hidden="1">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>2017</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55">
+        <v>3.06</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
       <c r="J55">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="10:10">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>2017</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56">
+        <v>3.8</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
       <c r="J56">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="10:10">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>2017</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57">
+        <v>30</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
       <c r="J57">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J57"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:J57">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="CHEZI"/>
+        <filter val="RONGZI"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:O40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.14285714285714" style="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2910,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J40" si="0">G2*H2</f>
+        <f t="shared" ref="J2:J43" si="0">G2*H2</f>
         <v>7000</v>
       </c>
     </row>
@@ -3006,7 +2525,7 @@
         <v>-700</v>
       </c>
       <c r="I5">
-        <v>-5.1</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
@@ -3063,7 +2582,7 @@
         <v>28</v>
       </c>
       <c r="G7">
-        <v>8.21</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -3073,7 +2592,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>8.21</v>
+        <v>8.2100000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3126,7 +2645,7 @@
         <v>28</v>
       </c>
       <c r="G9">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -3136,7 +2655,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3192,7 +2711,7 @@
         <v>78</v>
       </c>
       <c r="G11">
-        <v>19.67</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="H11">
         <v>-100</v>
@@ -3202,7 +2721,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>-1967</v>
+        <v>-1967.0000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3367,7 +2886,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -3387,7 +2906,7 @@
         <v>89</v>
       </c>
       <c r="G17">
-        <v>12.735</v>
+        <v>12.734999999999999</v>
       </c>
       <c r="H17">
         <v>-200</v>
@@ -3436,7 +2955,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -3466,7 +2985,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -3499,7 +3018,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -3519,7 +3038,7 @@
         <v>84</v>
       </c>
       <c r="G21">
-        <v>9.21</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="H21">
         <v>-700</v>
@@ -3529,10 +3048,10 @@
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>-6447</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>-6447.0000000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -3565,7 +3084,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -3598,94 +3117,226 @@
         <v>-9306</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>70</v>
       </c>
+      <c r="B24">
+        <v>2017</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>3500</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>70</v>
       </c>
-      <c r="I25">
-        <v>0</v>
+      <c r="B25">
+        <v>2017</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25">
+        <v>11.4</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>70</v>
       </c>
-      <c r="I26">
-        <v>0</v>
+      <c r="B26">
+        <v>2017</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26">
+        <v>70</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>70</v>
       </c>
+      <c r="B27">
+        <v>2017</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27">
+        <v>12.09</v>
+      </c>
+      <c r="H27">
+        <v>-400</v>
+      </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <f>G27*H27</f>
+        <v>-4836</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>70</v>
       </c>
+      <c r="B28">
+        <v>2017</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28">
+        <v>671</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>70</v>
       </c>
-      <c r="I29">
-        <v>0</v>
+      <c r="B29">
+        <v>2017</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29">
+        <v>60</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>70</v>
       </c>
+      <c r="B30">
+        <v>2017</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30">
+        <v>2.82</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>70</v>
       </c>
+      <c r="B31">
+        <v>2017</v>
+      </c>
       <c r="I31">
         <v>0</v>
       </c>
@@ -3694,9 +3345,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>70</v>
+      </c>
+      <c r="B32">
+        <v>2017</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3710,6 +3364,9 @@
       <c r="A33" t="s">
         <v>70</v>
       </c>
+      <c r="B33">
+        <v>2017</v>
+      </c>
       <c r="I33">
         <v>0</v>
       </c>
@@ -3722,6 +3379,9 @@
       <c r="A34" t="s">
         <v>70</v>
       </c>
+      <c r="B34">
+        <v>2017</v>
+      </c>
       <c r="I34">
         <v>0</v>
       </c>
@@ -3734,6 +3394,9 @@
       <c r="A35" t="s">
         <v>70</v>
       </c>
+      <c r="B35">
+        <v>2017</v>
+      </c>
       <c r="I35">
         <v>0</v>
       </c>
@@ -3746,6 +3409,9 @@
       <c r="A36" t="s">
         <v>70</v>
       </c>
+      <c r="B36">
+        <v>2017</v>
+      </c>
       <c r="I36">
         <v>0</v>
       </c>
@@ -3802,37 +3468,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J40"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <autoFilter ref="A1:J43"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr>
-    <tabColor theme="1"/>
-  </sheetPr>
-  <dimension ref="B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="2" max="2" width="45.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>